--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject21.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject21.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -134,7 +134,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="0">
-        <v>1</v>
+        <v>0.69900658042331953</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -167,7 +167,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O1" s="0">
         <v>0</v>
@@ -272,7 +272,7 @@
         <v>0</v>
       </c>
       <c r="AW1" s="0">
-        <v>0</v>
+        <v>0.86312688452600028</v>
       </c>
       <c r="AX1" s="0">
         <v>0</v>
@@ -305,7 +305,7 @@
         <v>0</v>
       </c>
       <c r="BH1" s="0">
-        <v>0</v>
+        <v>0.94551878715207327</v>
       </c>
       <c r="BI1" s="0">
         <v>0</v>
@@ -326,7 +326,7 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>1</v>
+        <v>0.59297949411845541</v>
       </c>
       <c r="BP1" s="0">
         <v>0</v>
@@ -340,10 +340,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0.62807546023148053</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0.6827938081008692</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -415,7 +415,7 @@
         <v>0</v>
       </c>
       <c r="AB2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="0">
         <v>0</v>
@@ -535,24 +535,24 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>0.68437573194057455</v>
       </c>
       <c r="B3" s="0">
-        <v>1</v>
+        <v>0.74580449258613424</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>0.55946852991218454</v>
       </c>
       <c r="E3" s="0">
-        <v>1</v>
+        <v>0.80692410207146459</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -654,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="AM3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN3" s="0">
         <v>0</v>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="AP3" s="0">
-        <v>0</v>
+        <v>0.68602356795906205</v>
       </c>
       <c r="AQ3" s="0">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="BA3" s="0">
-        <v>0</v>
+        <v>0.97991875433837206</v>
       </c>
       <c r="BB3" s="0">
         <v>0</v>
@@ -723,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="BJ3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK3" s="0">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>1</v>
+        <v>0.70253011264985621</v>
       </c>
       <c r="C4" s="0">
-        <v>1</v>
+        <v>0.85993051724872793</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="0">
-        <v>0</v>
+        <v>0.62928649599655295</v>
       </c>
       <c r="J4" s="0">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="AH4" s="0">
-        <v>0</v>
+        <v>0.57356335982221252</v>
       </c>
       <c r="AI4" s="0">
         <v>0</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="AN4" s="0">
-        <v>0</v>
+        <v>0.60923536564821656</v>
       </c>
       <c r="AO4" s="0">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>1</v>
+        <v>0.74068113726154272</v>
       </c>
       <c r="D5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>1</v>
+        <v>0.62094294989687249</v>
       </c>
       <c r="G5" s="0">
-        <v>1</v>
+        <v>0.6304914184763486</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1167,19 +1167,19 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>1</v>
+        <v>0.96678221415013377</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>1</v>
+        <v>0.82212990654616136</v>
       </c>
       <c r="H6" s="0">
-        <v>0</v>
+        <v>0.59558380864183857</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="BA6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB6" s="0">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>1</v>
+        <v>0.69831386309041976</v>
       </c>
       <c r="F7" s="0">
-        <v>1</v>
+        <v>0.67321578662823356</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>1</v>
+        <v>0.82274394727461475</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="X7" s="0">
-        <v>0</v>
+        <v>0.58723405238683934</v>
       </c>
       <c r="Y7" s="0">
         <v>0</v>
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="AP7" s="0">
-        <v>0</v>
+        <v>0.80456006316647755</v>
       </c>
       <c r="AQ7" s="0">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="AZ7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA7" s="0">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="BF7" s="0">
-        <v>0</v>
+        <v>0.92868898056175231</v>
       </c>
       <c r="BG7" s="0">
         <v>0</v>
       </c>
       <c r="BH7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="0">
         <v>0</v>
@@ -1585,16 +1585,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>0</v>
+        <v>0.8269879526374857</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>1</v>
+        <v>0.86348146791945057</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
@@ -1645,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="Z8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="0">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="AR8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS8" s="0">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="BI8" s="0">
-        <v>0</v>
+        <v>0.89448316387785387</v>
       </c>
       <c r="BJ8" s="0">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="BP8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>0</v>
+        <v>0.85676225756284119</v>
       </c>
       <c r="E9" s="0">
         <v>0</v>
@@ -1794,19 +1794,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>1</v>
+        <v>0.94895500074408068</v>
       </c>
       <c r="H9" s="0">
-        <v>1</v>
+        <v>0.98560102744511424</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>0</v>
+        <v>0.83182420308100491</v>
       </c>
       <c r="K9" s="0">
-        <v>0</v>
+        <v>0.89957469875771678</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" s="0">
         <v>0</v>
@@ -1842,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" s="0">
         <v>0</v>
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="AC9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD9" s="0">
         <v>0</v>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="AN9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="0">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="BL9" s="0">
-        <v>0</v>
+        <v>0.7362329976898272</v>
       </c>
       <c r="BM9" s="0">
         <v>0</v>
@@ -2006,16 +2006,16 @@
         <v>0</v>
       </c>
       <c r="I10" s="0">
-        <v>0</v>
+        <v>0.59126176786025231</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="0">
-        <v>1</v>
+        <v>0.76447448743919399</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="AE10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF10" s="0">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="0">
-        <v>0</v>
+        <v>0.8213871017381642</v>
       </c>
       <c r="AK10" s="0">
         <v>0</v>
@@ -2212,19 +2212,19 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>0</v>
+        <v>0.89830734036527338</v>
       </c>
       <c r="J11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="0">
-        <v>1</v>
+        <v>0.86464417518542525</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="0">
-        <v>0</v>
+        <v>0.50466702995925639</v>
       </c>
       <c r="U11" s="0">
         <v>0</v>
@@ -2421,19 +2421,19 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>1</v>
+        <v>0.5717863720805948</v>
       </c>
       <c r="K12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>0</v>
+        <v>0.77239351944830181</v>
       </c>
       <c r="N12" s="0">
-        <v>1</v>
+        <v>0.56198928441095575</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="AQ12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR12" s="0">
         <v>0</v>
@@ -2630,19 +2630,19 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>1</v>
+        <v>0.60215799443810725</v>
       </c>
       <c r="L13" s="0">
-        <v>0</v>
+        <v>0.51904097317111508</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>1</v>
+        <v>0.92398711495308072</v>
       </c>
       <c r="O13" s="0">
-        <v>1</v>
+        <v>0.81557831153191285</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="AQ13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR13" s="0">
         <v>0</v>
@@ -2806,7 +2806,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" s="0">
         <v>0</v>
@@ -2839,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>1</v>
+        <v>0.53647602542171491</v>
       </c>
       <c r="M14" s="0">
-        <v>1</v>
+        <v>0.92619090211947497</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>1</v>
+        <v>0.93131009464369097</v>
       </c>
       <c r="P14" s="0">
         <v>0</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="U14" s="0">
-        <v>0</v>
+        <v>0.6737283012770261</v>
       </c>
       <c r="V14" s="0">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="Z14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="0">
         <v>0</v>
@@ -2968,10 +2968,10 @@
         <v>0</v>
       </c>
       <c r="BC14" s="0">
-        <v>0</v>
+        <v>0.97550015736651297</v>
       </c>
       <c r="BD14" s="0">
-        <v>0</v>
+        <v>0.51724877936334535</v>
       </c>
       <c r="BE14" s="0">
         <v>0</v>
@@ -3048,19 +3048,19 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>1</v>
+        <v>0.65990247623478571</v>
       </c>
       <c r="N15" s="0">
-        <v>1</v>
+        <v>0.85687764351223983</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0.88992424764877442</v>
       </c>
       <c r="Q15" s="0">
-        <v>1</v>
+        <v>0.68635129805206163</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3114,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="AI15" s="0">
-        <v>0</v>
+        <v>0.55558107109630472</v>
       </c>
       <c r="AJ15" s="0">
         <v>0</v>
@@ -3260,16 +3260,16 @@
         <v>0</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0.76295709879817908</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>1</v>
+        <v>0.84309606985018026</v>
       </c>
       <c r="R16" s="0">
-        <v>0</v>
+        <v>0.68072205171695321</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="AT16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU16" s="0">
         <v>0</v>
@@ -3466,19 +3466,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>1</v>
+        <v>0.70644983821748175</v>
       </c>
       <c r="P17" s="0">
-        <v>1</v>
+        <v>0.99801966628180383</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>1</v>
+        <v>0.95201936152276967</v>
       </c>
       <c r="S17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="AF17" s="0">
-        <v>0</v>
+        <v>0.92532072065235549</v>
       </c>
       <c r="AG17" s="0">
         <v>0</v>
@@ -3654,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="0">
         <v>0</v>
@@ -3675,16 +3675,16 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>0</v>
+        <v>0.50878035454346504</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>0.5132808457759328</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>1</v>
+        <v>0.71233100082044654</v>
       </c>
       <c r="T18" s="0">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="0">
-        <v>0</v>
+        <v>0.63361104385949374</v>
       </c>
       <c r="AD18" s="0">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="AF18" s="0">
-        <v>0</v>
+        <v>0.94216271665299134</v>
       </c>
       <c r="AG18" s="0">
         <v>0</v>
@@ -3780,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="AY18" s="0">
-        <v>0</v>
+        <v>0.57010950991239606</v>
       </c>
       <c r="AZ18" s="0">
         <v>0</v>
@@ -3884,19 +3884,19 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="0">
-        <v>1</v>
+        <v>0.8234156956718508</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>1</v>
+        <v>0.94660570868544203</v>
       </c>
       <c r="U19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -3962,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="AQ19" s="0">
-        <v>0</v>
+        <v>0.64660091210197757</v>
       </c>
       <c r="AR19" s="0">
         <v>0</v>
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="AW19" s="0">
-        <v>0</v>
+        <v>0.69719401634686062</v>
       </c>
       <c r="AX19" s="0">
         <v>0</v>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="0">
-        <v>0</v>
+        <v>0.86091497941674189</v>
       </c>
       <c r="L20" s="0">
         <v>0</v>
@@ -4096,16 +4096,16 @@
         <v>0</v>
       </c>
       <c r="S20" s="0">
-        <v>1</v>
+        <v>0.65161946625996037</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>1</v>
+        <v>0.79745181144119148</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="AI20" s="0">
-        <v>0</v>
+        <v>0.77429649378833931</v>
       </c>
       <c r="AJ20" s="0">
         <v>0</v>
@@ -4177,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="AT20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU20" s="0">
         <v>0</v>
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="BF20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG20" s="0">
         <v>0</v>
@@ -4287,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="0">
-        <v>0</v>
+        <v>0.77169484713688985</v>
       </c>
       <c r="O21" s="0">
         <v>0</v>
@@ -4302,19 +4302,19 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0</v>
+        <v>0.99946276433356496</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0.66781440542870785</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4323,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="Z21" s="0">
-        <v>0</v>
+        <v>0.97722884187488501</v>
       </c>
       <c r="AA21" s="0">
         <v>0</v>
@@ -4377,7 +4377,7 @@
         <v>0</v>
       </c>
       <c r="AR21" s="0">
-        <v>0</v>
+        <v>0.58913484323886411</v>
       </c>
       <c r="AS21" s="0">
         <v>0</v>
@@ -4425,7 +4425,7 @@
         <v>0</v>
       </c>
       <c r="BH21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="0">
         <v>0</v>
@@ -4511,19 +4511,19 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>1</v>
+        <v>0.53844814444023137</v>
       </c>
       <c r="U22" s="0">
-        <v>0</v>
+        <v>0.70675882403536838</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>1</v>
+        <v>0.69231445566426819</v>
       </c>
       <c r="X22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="BO22" s="0">
-        <v>0</v>
+        <v>0.71527237590847714</v>
       </c>
       <c r="BP22" s="0">
         <v>0</v>
@@ -4684,7 +4684,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="0">
         <v>0</v>
@@ -4720,19 +4720,19 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0.73558221251151745</v>
       </c>
       <c r="V23" s="0">
-        <v>1</v>
+        <v>0.57732346914025556</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>0</v>
+        <v>0.9509525811319548</v>
       </c>
       <c r="Y23" s="0">
-        <v>1</v>
+        <v>0.62931707834736383</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4884,7 +4884,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="0">
-        <v>0</v>
+        <v>0.7367315684821889</v>
       </c>
       <c r="H24" s="0">
         <v>0</v>
@@ -4929,19 +4929,19 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" s="0">
-        <v>0</v>
+        <v>0.5537469995242037</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0.88179617940622168</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -5138,19 +5138,19 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>1</v>
+        <v>0.94226201190492676</v>
       </c>
       <c r="X25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="0">
-        <v>0</v>
+        <v>0.65388822786276179</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5201,7 +5201,7 @@
         <v>0</v>
       </c>
       <c r="AR25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS25" s="0">
         <v>0</v>
@@ -5237,7 +5237,7 @@
         <v>0</v>
       </c>
       <c r="BD25" s="0">
-        <v>0</v>
+        <v>0.92031017237837554</v>
       </c>
       <c r="BE25" s="0">
         <v>0</v>
@@ -5299,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="0">
         <v>0</v>
@@ -5317,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" s="0">
         <v>0</v>
@@ -5338,7 +5338,7 @@
         <v>0</v>
       </c>
       <c r="U26" s="0">
-        <v>0</v>
+        <v>0.71990748001040217</v>
       </c>
       <c r="V26" s="0">
         <v>0</v>
@@ -5347,19 +5347,19 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
+        <v>0.79310960888503801</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="0">
-        <v>0</v>
+        <v>0.96749052331073249</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="AF26" s="0">
-        <v>0</v>
+        <v>0.87401398678197717</v>
       </c>
       <c r="AG26" s="0">
         <v>0</v>
@@ -5556,10 +5556,10 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>0</v>
+        <v>0.84740881529010115</v>
       </c>
       <c r="Z27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="0">
-        <v>1</v>
+        <v>0.60432266331628048</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5634,7 +5634,7 @@
         <v>0</v>
       </c>
       <c r="AY27" s="0">
-        <v>0</v>
+        <v>0.7908867667172409</v>
       </c>
       <c r="AZ27" s="0">
         <v>0</v>
@@ -5655,7 +5655,7 @@
         <v>0</v>
       </c>
       <c r="BF27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG27" s="0">
         <v>0</v>
@@ -5664,7 +5664,7 @@
         <v>0</v>
       </c>
       <c r="BI27" s="0">
-        <v>0</v>
+        <v>0.64680808669181866</v>
       </c>
       <c r="BJ27" s="0">
         <v>0</v>
@@ -5693,7 +5693,7 @@
         <v>0</v>
       </c>
       <c r="B28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="0">
         <v>0</v>
@@ -5765,7 +5765,7 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>0</v>
+        <v>0.87549814604752285</v>
       </c>
       <c r="AA28" s="0">
         <v>0</v>
@@ -5774,10 +5774,10 @@
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>0</v>
+        <v>0.77693749502622667</v>
       </c>
       <c r="AD28" s="0">
-        <v>1</v>
+        <v>0.74503117936666341</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5920,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" s="0">
         <v>0</v>
@@ -5947,7 +5947,7 @@
         <v>0</v>
       </c>
       <c r="R29" s="0">
-        <v>0</v>
+        <v>0.76294619849066114</v>
       </c>
       <c r="S29" s="0">
         <v>0</v>
@@ -5974,19 +5974,19 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>1</v>
+        <v>0.88307064898674437</v>
       </c>
       <c r="AB29" s="0">
-        <v>0</v>
+        <v>0.66145841605855127</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE29" s="0">
-        <v>1</v>
+        <v>0.93039443666610522</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6183,19 +6183,19 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>1</v>
+        <v>0.65814668716642633</v>
       </c>
       <c r="AC30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>1</v>
+        <v>0.60827814012261139</v>
       </c>
       <c r="AF30" s="0">
-        <v>1</v>
+        <v>0.54549661013938044</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6335,7 +6335,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="0">
         <v>0</v>
@@ -6392,19 +6392,19 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>1</v>
+        <v>0.81140819064642189</v>
       </c>
       <c r="AD31" s="0">
-        <v>1</v>
+        <v>0.9002842472340804</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>0</v>
+        <v>0.80737905749142114</v>
       </c>
       <c r="AG31" s="0">
-        <v>1</v>
+        <v>0.80271394130881824</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="AL31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31" s="0">
         <v>0</v>
@@ -6562,10 +6562,10 @@
         <v>0</v>
       </c>
       <c r="Q32" s="0">
-        <v>0</v>
+        <v>0.81672962741813748</v>
       </c>
       <c r="R32" s="0">
-        <v>0</v>
+        <v>0.72148971742699297</v>
       </c>
       <c r="S32" s="0">
         <v>0</v>
@@ -6589,7 +6589,7 @@
         <v>0</v>
       </c>
       <c r="Z32" s="0">
-        <v>0</v>
+        <v>0.89072404469202104</v>
       </c>
       <c r="AA32" s="0">
         <v>0</v>
@@ -6601,19 +6601,19 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>1</v>
+        <v>0.92826623201465197</v>
       </c>
       <c r="AE32" s="0">
-        <v>0</v>
+        <v>0.60611316742211896</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH32" s="0">
-        <v>1</v>
+        <v>0.69067566387027224</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6810,19 +6810,19 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>1</v>
+        <v>0.723139143738317</v>
       </c>
       <c r="AF33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>1</v>
+        <v>0.69050121869229186</v>
       </c>
       <c r="AI33" s="0">
-        <v>1</v>
+        <v>0.67893529530711039</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6935,7 +6935,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="0">
-        <v>0</v>
+        <v>0.79035482555033032</v>
       </c>
       <c r="E34" s="0">
         <v>0</v>
@@ -7019,19 +7019,19 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>1</v>
+        <v>0.54108219840978056</v>
       </c>
       <c r="AG34" s="0">
-        <v>1</v>
+        <v>0.96503880880591431</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>1</v>
+        <v>0.69138491012751402</v>
       </c>
       <c r="AJ34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7112,7 +7112,7 @@
         <v>0</v>
       </c>
       <c r="BK34" s="0">
-        <v>0</v>
+        <v>0.61574664490462849</v>
       </c>
       <c r="BL34" s="0">
         <v>0</v>
@@ -7174,7 +7174,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="0">
-        <v>0</v>
+        <v>0.70556157792259855</v>
       </c>
       <c r="P35" s="0">
         <v>0</v>
@@ -7189,7 +7189,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="0">
-        <v>0</v>
+        <v>0.57457484377757639</v>
       </c>
       <c r="U35" s="0">
         <v>0</v>
@@ -7228,19 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>1</v>
+        <v>0.80778073473917034</v>
       </c>
       <c r="AH35" s="0">
-        <v>1</v>
+        <v>0.61484401625542429</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>1</v>
+        <v>0.72209446296530011</v>
       </c>
       <c r="AK35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7365,7 +7365,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="0">
-        <v>0</v>
+        <v>0.86459042171974709</v>
       </c>
       <c r="K36" s="0">
         <v>0</v>
@@ -7437,19 +7437,19 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI36" s="0">
-        <v>1</v>
+        <v>0.88453541805897706</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>1</v>
+        <v>0.76293700366304407</v>
       </c>
       <c r="AL36" s="0">
-        <v>1</v>
+        <v>0.59208440510791316</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7646,19 +7646,19 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ37" s="0">
-        <v>1</v>
+        <v>0.98248710830698105</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>1</v>
+        <v>0.83323038290837159</v>
       </c>
       <c r="AM37" s="0">
-        <v>1</v>
+        <v>0.74500516906142689</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7733,13 +7733,13 @@
         <v>0</v>
       </c>
       <c r="BL37" s="0">
-        <v>0</v>
+        <v>0.8806120567209893</v>
       </c>
       <c r="BM37" s="0">
         <v>0</v>
       </c>
       <c r="BN37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO37" s="0">
         <v>0</v>
@@ -7840,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="AE38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF38" s="0">
         <v>0</v>
@@ -7855,19 +7855,19 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>1</v>
+        <v>0.64839831192108743</v>
       </c>
       <c r="AK38" s="0">
-        <v>1</v>
+        <v>0.59273016088072383</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>0</v>
+        <v>0.96978740466886848</v>
       </c>
       <c r="AN38" s="0">
-        <v>0</v>
+        <v>0.58704401148311713</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -7879,7 +7879,7 @@
         <v>0</v>
       </c>
       <c r="AR38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS38" s="0">
         <v>0</v>
@@ -7962,7 +7962,7 @@
         <v>0</v>
       </c>
       <c r="C39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" s="0">
         <v>0</v>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>1</v>
+        <v>0.87410584502245947</v>
       </c>
       <c r="AL39" s="0">
-        <v>0</v>
+        <v>0.83235639576194553</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>1</v>
+        <v>0.51262936206125609</v>
       </c>
       <c r="AO39" s="0">
-        <v>1</v>
+        <v>0.53985043265545452</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="D40" s="0">
-        <v>0</v>
+        <v>0.54648822910149586</v>
       </c>
       <c r="E40" s="0">
         <v>0</v>
@@ -8186,7 +8186,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" s="0">
         <v>0</v>
@@ -8273,19 +8273,19 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>0</v>
+        <v>0.67168467186470826</v>
       </c>
       <c r="AM40" s="0">
-        <v>1</v>
+        <v>0.52738198970537919</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP40" s="0">
-        <v>0</v>
+        <v>0.72585996823539556</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8482,19 +8482,19 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>1</v>
+        <v>0.88482221720721643</v>
       </c>
       <c r="AN41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>1</v>
+        <v>0.72382769921823242</v>
       </c>
       <c r="AQ41" s="0">
-        <v>1</v>
+        <v>0.66275180145399282</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8580,7 +8580,7 @@
         <v>0</v>
       </c>
       <c r="C42" s="0">
-        <v>0</v>
+        <v>0.94160148344764671</v>
       </c>
       <c r="D42" s="0">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="0">
-        <v>0</v>
+        <v>0.71979938121439546</v>
       </c>
       <c r="H42" s="0">
         <v>0</v>
@@ -8691,19 +8691,19 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>0</v>
+        <v>0.8788377921987458</v>
       </c>
       <c r="AO42" s="0">
-        <v>1</v>
+        <v>0.66007625118316549</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR42" s="0">
-        <v>1</v>
+        <v>0.63393858998844399</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8733,13 +8733,13 @@
         <v>0</v>
       </c>
       <c r="BB42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC42" s="0">
         <v>0</v>
       </c>
       <c r="BD42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE42" s="0">
         <v>0</v>
@@ -8813,10 +8813,10 @@
         <v>0</v>
       </c>
       <c r="L43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43" s="0">
         <v>0</v>
@@ -8834,7 +8834,7 @@
         <v>0</v>
       </c>
       <c r="S43" s="0">
-        <v>0</v>
+        <v>0.84917070133750316</v>
       </c>
       <c r="T43" s="0">
         <v>0</v>
@@ -8900,19 +8900,19 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>1</v>
+        <v>0.68424226224261675</v>
       </c>
       <c r="AP43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>0</v>
+        <v>0.52567283063902681</v>
       </c>
       <c r="AS43" s="0">
-        <v>1</v>
+        <v>0.87412001519178584</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -9007,7 +9007,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" s="0">
         <v>0</v>
@@ -9046,7 +9046,7 @@
         <v>0</v>
       </c>
       <c r="U44" s="0">
-        <v>0</v>
+        <v>0.65349859452801151</v>
       </c>
       <c r="V44" s="0">
         <v>0</v>
@@ -9058,7 +9058,7 @@
         <v>0</v>
       </c>
       <c r="Y44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z44" s="0">
         <v>0</v>
@@ -9097,7 +9097,7 @@
         <v>0</v>
       </c>
       <c r="AL44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM44" s="0">
         <v>0</v>
@@ -9109,19 +9109,19 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>1</v>
+        <v>0.69072745748646458</v>
       </c>
       <c r="AQ44" s="0">
-        <v>0</v>
+        <v>0.66017184202215384</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT44" s="0">
-        <v>1</v>
+        <v>0.84780289249172425</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9318,19 +9318,19 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>1</v>
+        <v>0.69066420930455275</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>1</v>
+        <v>0.96452943608013086</v>
       </c>
       <c r="AU45" s="0">
-        <v>0</v>
+        <v>0.910442205782799</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9360,7 +9360,7 @@
         <v>0</v>
       </c>
       <c r="BE45" s="0">
-        <v>0</v>
+        <v>0.71093578297428239</v>
       </c>
       <c r="BF45" s="0">
         <v>0</v>
@@ -9369,7 +9369,7 @@
         <v>0</v>
       </c>
       <c r="BH45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI45" s="0">
         <v>0</v>
@@ -9443,7 +9443,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="0">
         <v>0</v>
@@ -9455,7 +9455,7 @@
         <v>0</v>
       </c>
       <c r="T46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U46" s="0">
         <v>0</v>
@@ -9527,19 +9527,19 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>1</v>
+        <v>0.87881525475073174</v>
       </c>
       <c r="AS46" s="0">
-        <v>1</v>
+        <v>0.76645538666218305</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>0</v>
+        <v>0.66396152076342552</v>
       </c>
       <c r="AV46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9557,7 +9557,7 @@
         <v>0</v>
       </c>
       <c r="BB46" s="0">
-        <v>0</v>
+        <v>0.96577354822060457</v>
       </c>
       <c r="BC46" s="0">
         <v>0</v>
@@ -9736,19 +9736,19 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>0</v>
+        <v>0.64674948358803985</v>
       </c>
       <c r="AT47" s="0">
-        <v>0</v>
+        <v>0.7985352732366886</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>1</v>
+        <v>0.79137345790320457</v>
       </c>
       <c r="AW47" s="0">
-        <v>1</v>
+        <v>0.65164371911290642</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9945,25 +9945,25 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU48" s="0">
-        <v>1</v>
+        <v>0.57557480991969334</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>1</v>
+        <v>0.60317346023007601</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0.92857020375697874</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
       </c>
       <c r="AZ48" s="0">
-        <v>0</v>
+        <v>0.8830391243510014</v>
       </c>
       <c r="BA48" s="0">
         <v>0</v>
@@ -10016,7 +10016,7 @@
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0</v>
+        <v>0.62834397224298555</v>
       </c>
       <c r="B49" s="0">
         <v>0</v>
@@ -10070,7 +10070,7 @@
         <v>0</v>
       </c>
       <c r="S49" s="0">
-        <v>0</v>
+        <v>0.56952680640017361</v>
       </c>
       <c r="T49" s="0">
         <v>0</v>
@@ -10154,19 +10154,19 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>1</v>
+        <v>0.8329568998997765</v>
       </c>
       <c r="AV49" s="0">
-        <v>1</v>
+        <v>0.71884579862766862</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10363,19 +10363,19 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0.93054179848031227</v>
       </c>
       <c r="AW50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>1</v>
+        <v>0.66203949054198619</v>
       </c>
       <c r="AZ50" s="0">
-        <v>1</v>
+        <v>0.57907936928736781</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10479,7 +10479,7 @@
         <v>0</v>
       </c>
       <c r="R51" s="0">
-        <v>0</v>
+        <v>0.96679066325086982</v>
       </c>
       <c r="S51" s="0">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="AA51" s="0">
-        <v>0</v>
+        <v>0.55533952405534692</v>
       </c>
       <c r="AB51" s="0">
         <v>0</v>
@@ -10572,19 +10572,19 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX51" s="0">
-        <v>1</v>
+        <v>0.5651118390662524</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA51" s="0">
-        <v>1</v>
+        <v>0.89127488317498016</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10652,7 +10652,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" s="0">
         <v>0</v>
@@ -10775,22 +10775,22 @@
         <v>0</v>
       </c>
       <c r="AV52" s="0">
-        <v>0</v>
+        <v>0.75751900850292353</v>
       </c>
       <c r="AW52" s="0">
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>1</v>
+        <v>0.72670492296802669</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>1</v>
+        <v>0.80407422921607918</v>
       </c>
       <c r="BB52" s="0">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="C53" s="0">
-        <v>0</v>
+        <v>0.82111776914976531</v>
       </c>
       <c r="D53" s="0">
         <v>0</v>
@@ -10855,7 +10855,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" s="0">
         <v>0</v>
@@ -10990,19 +10990,19 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>1</v>
+        <v>0.70887674201111095</v>
       </c>
       <c r="AZ53" s="0">
-        <v>1</v>
+        <v>0.91033423026424876</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>0</v>
+        <v>0.64316695016197745</v>
       </c>
       <c r="BC53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11023,7 +11023,7 @@
         <v>0</v>
       </c>
       <c r="BJ53" s="0">
-        <v>0</v>
+        <v>0.74140213140618283</v>
       </c>
       <c r="BK53" s="0">
         <v>0</v>
@@ -11038,7 +11038,7 @@
         <v>0</v>
       </c>
       <c r="BO53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP53" s="0">
         <v>0</v>
@@ -11169,7 +11169,7 @@
         <v>0</v>
       </c>
       <c r="AP54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ54" s="0">
         <v>0</v>
@@ -11181,7 +11181,7 @@
         <v>0</v>
       </c>
       <c r="AT54" s="0">
-        <v>0</v>
+        <v>0.7130127197174243</v>
       </c>
       <c r="AU54" s="0">
         <v>0</v>
@@ -11202,16 +11202,16 @@
         <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>0</v>
+        <v>0.92880949435663041</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>0</v>
+        <v>0.85239632698488443</v>
       </c>
       <c r="BD54" s="0">
-        <v>1</v>
+        <v>0.5267689979414325</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11291,7 +11291,7 @@
         <v>0</v>
       </c>
       <c r="N55" s="0">
-        <v>0</v>
+        <v>0.73558796935095117</v>
       </c>
       <c r="O55" s="0">
         <v>0</v>
@@ -11408,19 +11408,19 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB55" s="0">
-        <v>0</v>
+        <v>0.53533769567292255</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE55" s="0">
-        <v>1</v>
+        <v>0.52789889131928558</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11497,7 +11497,7 @@
         <v>0</v>
       </c>
       <c r="N56" s="0">
-        <v>0</v>
+        <v>0.73749851679986511</v>
       </c>
       <c r="O56" s="0">
         <v>0</v>
@@ -11530,7 +11530,7 @@
         <v>0</v>
       </c>
       <c r="Y56" s="0">
-        <v>0</v>
+        <v>0.79655590677996702</v>
       </c>
       <c r="Z56" s="0">
         <v>0</v>
@@ -11581,7 +11581,7 @@
         <v>0</v>
       </c>
       <c r="AP56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ56" s="0">
         <v>0</v>
@@ -11617,19 +11617,19 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>1</v>
+        <v>0.70681323659601136</v>
       </c>
       <c r="BC56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF56" s="0">
-        <v>0</v>
+        <v>0.86295943088825466</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11796,7 +11796,7 @@
         <v>0</v>
       </c>
       <c r="AS57" s="0">
-        <v>0</v>
+        <v>0.64988719600537692</v>
       </c>
       <c r="AT57" s="0">
         <v>0</v>
@@ -11826,19 +11826,19 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>1</v>
+        <v>0.70557880664135197</v>
       </c>
       <c r="BD57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG57" s="0">
-        <v>1</v>
+        <v>0.79867832649287118</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11888,7 +11888,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="0">
-        <v>0</v>
+        <v>0.54333072486545197</v>
       </c>
       <c r="H58" s="0">
         <v>0</v>
@@ -11927,7 +11927,7 @@
         <v>0</v>
       </c>
       <c r="T58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U58" s="0">
         <v>0</v>
@@ -11948,7 +11948,7 @@
         <v>0</v>
       </c>
       <c r="AA58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB58" s="0">
         <v>0</v>
@@ -12035,16 +12035,16 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>0</v>
+        <v>0.74394699405496645</v>
       </c>
       <c r="BE58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>1</v>
+        <v>0.76372778083941995</v>
       </c>
       <c r="BH58" s="0">
         <v>0</v>
@@ -12071,7 +12071,7 @@
         <v>0</v>
       </c>
       <c r="BP58" s="0">
-        <v>0</v>
+        <v>0.77311261371490203</v>
       </c>
     </row>
     <row r="59">
@@ -12244,19 +12244,19 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>1</v>
+        <v>0.98948926315487196</v>
       </c>
       <c r="BF59" s="0">
-        <v>1</v>
+        <v>0.82912970019497578</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>1</v>
+        <v>0.78926501768814483</v>
       </c>
       <c r="BI59" s="0">
-        <v>1</v>
+        <v>0.84248574422234679</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12282,7 +12282,7 @@
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>0</v>
+        <v>0.9335026387815335</v>
       </c>
       <c r="B60" s="0">
         <v>0</v>
@@ -12300,7 +12300,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" s="0">
         <v>0</v>
@@ -12342,7 +12342,7 @@
         <v>0</v>
       </c>
       <c r="U60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V60" s="0">
         <v>0</v>
@@ -12414,7 +12414,7 @@
         <v>0</v>
       </c>
       <c r="AS60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT60" s="0">
         <v>0</v>
@@ -12456,16 +12456,16 @@
         <v>0</v>
       </c>
       <c r="BG60" s="0">
-        <v>1</v>
+        <v>0.76199246867785464</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>1</v>
+        <v>0.91833976271714035</v>
       </c>
       <c r="BJ60" s="0">
-        <v>0</v>
+        <v>0.92414245933931638</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12509,7 +12509,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="0">
-        <v>0</v>
+        <v>0.88828540555375879</v>
       </c>
       <c r="I61" s="0">
         <v>0</v>
@@ -12566,7 +12566,7 @@
         <v>0</v>
       </c>
       <c r="AA61" s="0">
-        <v>0</v>
+        <v>0.72376797185369024</v>
       </c>
       <c r="AB61" s="0">
         <v>0</v>
@@ -12662,19 +12662,19 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>1</v>
+        <v>0.73109942380973947</v>
       </c>
       <c r="BH61" s="0">
-        <v>1</v>
+        <v>0.87119968103450574</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>0</v>
+        <v>0.60824156528048701</v>
       </c>
       <c r="BK61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12686,7 +12686,7 @@
         <v>0</v>
       </c>
       <c r="BO61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP61" s="0">
         <v>0</v>
@@ -12700,7 +12700,7 @@
         <v>0</v>
       </c>
       <c r="C62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" s="0">
         <v>0</v>
@@ -12850,7 +12850,7 @@
         <v>0</v>
       </c>
       <c r="BA62" s="0">
-        <v>0</v>
+        <v>0.57875453059069426</v>
       </c>
       <c r="BB62" s="0">
         <v>0</v>
@@ -12871,19 +12871,19 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>0</v>
+        <v>0.62961665700170766</v>
       </c>
       <c r="BI62" s="0">
-        <v>0</v>
+        <v>0.85336805693373297</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>0</v>
+        <v>0.58619389313664294</v>
       </c>
       <c r="BL62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12895,7 +12895,7 @@
         <v>0</v>
       </c>
       <c r="BP62" s="0">
-        <v>0</v>
+        <v>0.55338454848481489</v>
       </c>
     </row>
     <row r="63">
@@ -12999,7 +12999,7 @@
         <v>0</v>
       </c>
       <c r="AH63" s="0">
-        <v>0</v>
+        <v>0.66962040177795179</v>
       </c>
       <c r="AI63" s="0">
         <v>0</v>
@@ -13080,19 +13080,19 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ63" s="0">
-        <v>0</v>
+        <v>0.88471560536540839</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>1</v>
+        <v>0.63110523106824024</v>
       </c>
       <c r="BM63" s="0">
-        <v>1</v>
+        <v>0.58595181021978826</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13130,7 +13130,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="0">
-        <v>0</v>
+        <v>0.66279437067132774</v>
       </c>
       <c r="J64" s="0">
         <v>0</v>
@@ -13214,7 +13214,7 @@
         <v>0</v>
       </c>
       <c r="AK64" s="0">
-        <v>0</v>
+        <v>0.84170096904240699</v>
       </c>
       <c r="AL64" s="0">
         <v>0</v>
@@ -13289,19 +13289,19 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK64" s="0">
-        <v>1</v>
+        <v>0.57053832538229021</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13498,19 +13498,19 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>1</v>
+        <v>0.95103415902647637</v>
       </c>
       <c r="BL65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>1</v>
+        <v>0.78648572393827332</v>
       </c>
       <c r="BO65" s="0">
-        <v>1</v>
+        <v>0.69402098742427887</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13626,7 +13626,7 @@
         <v>0</v>
       </c>
       <c r="AK66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL66" s="0">
         <v>0</v>
@@ -13707,24 +13707,24 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM66" s="0">
-        <v>1</v>
+        <v>0.75723168011961506</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>1</v>
+        <v>0.92853555076715644</v>
       </c>
       <c r="BP66" s="0">
-        <v>0</v>
+        <v>0.75489731425047046</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>1</v>
+        <v>0.54120912475931604</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13787,7 +13787,7 @@
         <v>0</v>
       </c>
       <c r="V67" s="0">
-        <v>0</v>
+        <v>0.75134467784862657</v>
       </c>
       <c r="W67" s="0">
         <v>0</v>
@@ -13880,7 +13880,7 @@
         <v>0</v>
       </c>
       <c r="BA67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB67" s="0">
         <v>0</v>
@@ -13904,7 +13904,7 @@
         <v>0</v>
       </c>
       <c r="BI67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ67" s="0">
         <v>0</v>
@@ -13916,16 +13916,16 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>1</v>
+        <v>0.5594767518115904</v>
       </c>
       <c r="BN67" s="0">
-        <v>1</v>
+        <v>0.71824735702269504</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>1</v>
+        <v>0.87297907071305736</v>
       </c>
     </row>
     <row r="68">
@@ -13933,7 +13933,7 @@
         <v>0</v>
       </c>
       <c r="B68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -13951,7 +13951,7 @@
         <v>0</v>
       </c>
       <c r="H68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" s="0">
         <v>0</v>
@@ -14101,7 +14101,7 @@
         <v>0</v>
       </c>
       <c r="BF68" s="0">
-        <v>0</v>
+        <v>0.53048586691398603</v>
       </c>
       <c r="BG68" s="0">
         <v>0</v>
@@ -14113,7 +14113,7 @@
         <v>0</v>
       </c>
       <c r="BJ68" s="0">
-        <v>0</v>
+        <v>0.67103517279574021</v>
       </c>
       <c r="BK68" s="0">
         <v>0</v>
@@ -14125,10 +14125,10 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>0</v>
+        <v>0.62255820065704437</v>
       </c>
       <c r="BO68" s="0">
-        <v>1</v>
+        <v>0.91582422014789566</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject21.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject21.xlsx
@@ -340,10 +340,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.62807546023148053</v>
+        <v>0.74580449258613424</v>
       </c>
       <c r="D2" s="0">
-        <v>0.6827938081008692</v>
+        <v>0.70253011264985621</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.68437573194057455</v>
+        <v>0.69900658042331953</v>
       </c>
       <c r="B3" s="0">
         <v>0.74580449258613424</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.55946852991218454</v>
+        <v>0.85993051724872793</v>
       </c>
       <c r="E3" s="0">
         <v>0.80692410207146459</v>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="AP3" s="0">
-        <v>0.68602356795906205</v>
+        <v>0.94160148344764671</v>
       </c>
       <c r="AQ3" s="0">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="0">
-        <v>0.62928649599655295</v>
+        <v>0.85676225756284119</v>
       </c>
       <c r="J4" s="0">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="AH4" s="0">
-        <v>0.57356335982221252</v>
+        <v>0.79035482555033032</v>
       </c>
       <c r="AI4" s="0">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0.74068113726154272</v>
+        <v>0.80692410207146459</v>
       </c>
       <c r="D5" s="0">
         <v>0</v>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>0.62094294989687249</v>
+        <v>0.96678221415013377</v>
       </c>
       <c r="G5" s="0">
-        <v>0.6304914184763486</v>
+        <v>0.69831386309041976</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>0.82212990654616136</v>
       </c>
       <c r="H6" s="0">
-        <v>0.59558380864183857</v>
+        <v>0.8269879526374857</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>0.69831386309041976</v>
       </c>
       <c r="F7" s="0">
-        <v>0.67321578662823356</v>
+        <v>0.82212990654616136</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.82274394727461475</v>
+        <v>0.94895500074408068</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="X7" s="0">
-        <v>0.58723405238683934</v>
+        <v>0.7367315684821889</v>
       </c>
       <c r="Y7" s="0">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>0.86348146791945057</v>
+        <v>0.98560102744511424</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="0">
-        <v>0.59126176786025231</v>
+        <v>0.83182420308100491</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="0">
-        <v>0.8213871017381642</v>
+        <v>0.86459042171974709</v>
       </c>
       <c r="AK10" s="0">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>0.89830734036527338</v>
+        <v>0.89957469875771678</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="0">
-        <v>0.50466702995925639</v>
+        <v>0.86091497941674189</v>
       </c>
       <c r="U11" s="0">
         <v>0</v>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>0.5717863720805948</v>
+        <v>0.76447448743919399</v>
       </c>
       <c r="K12" s="0">
         <v>0</v>
@@ -2630,16 +2630,16 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>0.60215799443810725</v>
+        <v>0.86464417518542525</v>
       </c>
       <c r="L13" s="0">
-        <v>0.51904097317111508</v>
+        <v>0.77239351944830181</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>0.92398711495308072</v>
+        <v>0.92619090211947497</v>
       </c>
       <c r="O13" s="0">
         <v>0.81557831153191285</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>0.53647602542171491</v>
+        <v>0.56198928441095575</v>
       </c>
       <c r="M14" s="0">
         <v>0.92619090211947497</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="U14" s="0">
-        <v>0.6737283012770261</v>
+        <v>0.77169484713688985</v>
       </c>
       <c r="V14" s="0">
         <v>0</v>
@@ -2971,7 +2971,7 @@
         <v>0.97550015736651297</v>
       </c>
       <c r="BD14" s="0">
-        <v>0.51724877936334535</v>
+        <v>0.73749851679986511</v>
       </c>
       <c r="BE14" s="0">
         <v>0</v>
@@ -3048,10 +3048,10 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>0.65990247623478571</v>
+        <v>0.81557831153191285</v>
       </c>
       <c r="N15" s="0">
-        <v>0.85687764351223983</v>
+        <v>0.93131009464369097</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0.88992424764877442</v>
       </c>
       <c r="Q15" s="0">
-        <v>0.68635129805206163</v>
+        <v>0.70644983821748175</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3114,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="AI15" s="0">
-        <v>0.55558107109630472</v>
+        <v>0.70556157792259855</v>
       </c>
       <c r="AJ15" s="0">
         <v>0</v>
@@ -3260,13 +3260,13 @@
         <v>0</v>
       </c>
       <c r="O16" s="0">
-        <v>0.76295709879817908</v>
+        <v>0.88992424764877442</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>0.84309606985018026</v>
+        <v>0.99801966628180383</v>
       </c>
       <c r="R16" s="0">
         <v>0.68072205171695321</v>
@@ -3675,16 +3675,16 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>0.50878035454346504</v>
+        <v>0.68072205171695321</v>
       </c>
       <c r="Q18" s="0">
-        <v>0.5132808457759328</v>
+        <v>0.95201936152276967</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>0.71233100082044654</v>
+        <v>0.8234156956718508</v>
       </c>
       <c r="T18" s="0">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="0">
-        <v>0.63361104385949374</v>
+        <v>0.76294619849066114</v>
       </c>
       <c r="AD18" s="0">
         <v>0</v>
@@ -3780,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="AY18" s="0">
-        <v>0.57010950991239606</v>
+        <v>0.96679066325086982</v>
       </c>
       <c r="AZ18" s="0">
         <v>0</v>
@@ -3962,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="AQ19" s="0">
-        <v>0.64660091210197757</v>
+        <v>0.84917070133750316</v>
       </c>
       <c r="AR19" s="0">
         <v>0</v>
@@ -4096,7 +4096,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="0">
-        <v>0.65161946625996037</v>
+        <v>0.94660570868544203</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
@@ -4314,7 +4314,7 @@
         <v>0.99946276433356496</v>
       </c>
       <c r="W21" s="0">
-        <v>0.66781440542870785</v>
+        <v>0.73558221251151745</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4377,7 +4377,7 @@
         <v>0</v>
       </c>
       <c r="AR21" s="0">
-        <v>0.58913484323886411</v>
+        <v>0.65349859452801151</v>
       </c>
       <c r="AS21" s="0">
         <v>0</v>
@@ -4511,10 +4511,10 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>0.53844814444023137</v>
+        <v>0.79745181144119148</v>
       </c>
       <c r="U22" s="0">
-        <v>0.70675882403536838</v>
+        <v>0.99946276433356496</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="BO22" s="0">
-        <v>0.71527237590847714</v>
+        <v>0.75134467784862657</v>
       </c>
       <c r="BP22" s="0">
         <v>0</v>
@@ -4723,7 +4723,7 @@
         <v>0.73558221251151745</v>
       </c>
       <c r="V23" s="0">
-        <v>0.57732346914025556</v>
+        <v>0.69231445566426819</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
@@ -4732,7 +4732,7 @@
         <v>0.9509525811319548</v>
       </c>
       <c r="Y23" s="0">
-        <v>0.62931707834736383</v>
+        <v>0.94226201190492676</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="0">
-        <v>0.5537469995242037</v>
+        <v>0.9509525811319548</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="0">
-        <v>0.65388822786276179</v>
+        <v>0.84740881529010115</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5338,7 +5338,7 @@
         <v>0</v>
       </c>
       <c r="U26" s="0">
-        <v>0.71990748001040217</v>
+        <v>0.97722884187488501</v>
       </c>
       <c r="V26" s="0">
         <v>0</v>
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>0.79310960888503801</v>
+        <v>0.88179617940622168</v>
       </c>
       <c r="Y26" s="0">
         <v>0</v>
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="AF26" s="0">
-        <v>0.87401398678197717</v>
+        <v>0.89072404469202104</v>
       </c>
       <c r="AG26" s="0">
         <v>0</v>
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="0">
-        <v>0.60432266331628048</v>
+        <v>0.88307064898674437</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5664,7 +5664,7 @@
         <v>0</v>
       </c>
       <c r="BI27" s="0">
-        <v>0.64680808669181866</v>
+        <v>0.72376797185369024</v>
       </c>
       <c r="BJ27" s="0">
         <v>0</v>
@@ -5765,7 +5765,7 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>0.87549814604752285</v>
+        <v>0.96749052331073249</v>
       </c>
       <c r="AA28" s="0">
         <v>0</v>
@@ -5977,7 +5977,7 @@
         <v>0.88307064898674437</v>
       </c>
       <c r="AB29" s="0">
-        <v>0.66145841605855127</v>
+        <v>0.77693749502622667</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
@@ -6183,7 +6183,7 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>0.65814668716642633</v>
+        <v>0.74503117936666341</v>
       </c>
       <c r="AC30" s="0">
         <v>0</v>
@@ -6192,10 +6192,10 @@
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>0.60827814012261139</v>
+        <v>0.9002842472340804</v>
       </c>
       <c r="AF30" s="0">
-        <v>0.54549661013938044</v>
+        <v>0.92826623201465197</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6392,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>0.81140819064642189</v>
+        <v>0.93039443666610522</v>
       </c>
       <c r="AD31" s="0">
         <v>0.9002842472340804</v>
@@ -6562,10 +6562,10 @@
         <v>0</v>
       </c>
       <c r="Q32" s="0">
-        <v>0.81672962741813748</v>
+        <v>0.92532072065235549</v>
       </c>
       <c r="R32" s="0">
-        <v>0.72148971742699297</v>
+        <v>0.94216271665299134</v>
       </c>
       <c r="S32" s="0">
         <v>0</v>
@@ -6604,7 +6604,7 @@
         <v>0.92826623201465197</v>
       </c>
       <c r="AE32" s="0">
-        <v>0.60611316742211896</v>
+        <v>0.80737905749142114</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
@@ -6810,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>0.723139143738317</v>
+        <v>0.80271394130881824</v>
       </c>
       <c r="AF33" s="0">
         <v>0</v>
@@ -6819,10 +6819,10 @@
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>0.69050121869229186</v>
+        <v>0.96503880880591431</v>
       </c>
       <c r="AI33" s="0">
-        <v>0.67893529530711039</v>
+        <v>0.80778073473917034</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>0.54108219840978056</v>
+        <v>0.69067566387027224</v>
       </c>
       <c r="AG34" s="0">
         <v>0.96503880880591431</v>
@@ -7112,7 +7112,7 @@
         <v>0</v>
       </c>
       <c r="BK34" s="0">
-        <v>0.61574664490462849</v>
+        <v>0.66962040177795179</v>
       </c>
       <c r="BL34" s="0">
         <v>0</v>
@@ -7189,7 +7189,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="0">
-        <v>0.57457484377757639</v>
+        <v>0.77429649378833931</v>
       </c>
       <c r="U35" s="0">
         <v>0</v>
@@ -7231,13 +7231,13 @@
         <v>0.80778073473917034</v>
       </c>
       <c r="AH35" s="0">
-        <v>0.61484401625542429</v>
+        <v>0.69138491012751402</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>0.72209446296530011</v>
+        <v>0.88453541805897706</v>
       </c>
       <c r="AK35" s="0">
         <v>0</v>
@@ -7446,10 +7446,10 @@
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>0.76293700366304407</v>
+        <v>0.98248710830698105</v>
       </c>
       <c r="AL36" s="0">
-        <v>0.59208440510791316</v>
+        <v>0.64839831192108743</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7658,7 +7658,7 @@
         <v>0.83323038290837159</v>
       </c>
       <c r="AM37" s="0">
-        <v>0.74500516906142689</v>
+        <v>0.87410584502245947</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7858,7 +7858,7 @@
         <v>0.64839831192108743</v>
       </c>
       <c r="AK38" s="0">
-        <v>0.59273016088072383</v>
+        <v>0.83323038290837159</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
@@ -7867,7 +7867,7 @@
         <v>0.96978740466886848</v>
       </c>
       <c r="AN38" s="0">
-        <v>0.58704401148311713</v>
+        <v>0.67168467186470826</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -8067,16 +8067,16 @@
         <v>0.87410584502245947</v>
       </c>
       <c r="AL39" s="0">
-        <v>0.83235639576194553</v>
+        <v>0.96978740466886848</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>0.51262936206125609</v>
+        <v>0.52738198970537919</v>
       </c>
       <c r="AO39" s="0">
-        <v>0.53985043265545452</v>
+        <v>0.88482221720721643</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="D40" s="0">
-        <v>0.54648822910149586</v>
+        <v>0.60923536564821656</v>
       </c>
       <c r="E40" s="0">
         <v>0</v>
@@ -8285,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="AP40" s="0">
-        <v>0.72585996823539556</v>
+        <v>0.8788377921987458</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8494,7 +8494,7 @@
         <v>0.72382769921823242</v>
       </c>
       <c r="AQ41" s="0">
-        <v>0.66275180145399282</v>
+        <v>0.68424226224261675</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="0">
-        <v>0.71979938121439546</v>
+        <v>0.80456006316647755</v>
       </c>
       <c r="H42" s="0">
         <v>0</v>
@@ -8694,7 +8694,7 @@
         <v>0.8788377921987458</v>
       </c>
       <c r="AO42" s="0">
-        <v>0.66007625118316549</v>
+        <v>0.72382769921823242</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
@@ -8703,7 +8703,7 @@
         <v>0</v>
       </c>
       <c r="AR42" s="0">
-        <v>0.63393858998844399</v>
+        <v>0.69072745748646458</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>0.52567283063902681</v>
+        <v>0.66017184202215384</v>
       </c>
       <c r="AS43" s="0">
         <v>0.87412001519178584</v>
@@ -9121,7 +9121,7 @@
         <v>0</v>
       </c>
       <c r="AT44" s="0">
-        <v>0.84780289249172425</v>
+        <v>0.87881525475073174</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9318,7 +9318,7 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>0.69066420930455275</v>
+        <v>0.87412001519178584</v>
       </c>
       <c r="AR45" s="0">
         <v>0</v>
@@ -9530,13 +9530,13 @@
         <v>0.87881525475073174</v>
       </c>
       <c r="AS46" s="0">
-        <v>0.76645538666218305</v>
+        <v>0.96452943608013086</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>0.66396152076342552</v>
+        <v>0.7985352732366886</v>
       </c>
       <c r="AV46" s="0">
         <v>0</v>
@@ -9736,7 +9736,7 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>0.64674948358803985</v>
+        <v>0.910442205782799</v>
       </c>
       <c r="AT47" s="0">
         <v>0.7985352732366886</v>
@@ -9748,7 +9748,7 @@
         <v>0.79137345790320457</v>
       </c>
       <c r="AW47" s="0">
-        <v>0.65164371911290642</v>
+        <v>0.8329568998997765</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9948,16 +9948,16 @@
         <v>0</v>
       </c>
       <c r="AU48" s="0">
-        <v>0.57557480991969334</v>
+        <v>0.79137345790320457</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>0.60317346023007601</v>
+        <v>0.71884579862766862</v>
       </c>
       <c r="AX48" s="0">
-        <v>0.92857020375697874</v>
+        <v>0.93054179848031227</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -10016,7 +10016,7 @@
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.62834397224298555</v>
+        <v>0.86312688452600028</v>
       </c>
       <c r="B49" s="0">
         <v>0</v>
@@ -10070,7 +10070,7 @@
         <v>0</v>
       </c>
       <c r="S49" s="0">
-        <v>0.56952680640017361</v>
+        <v>0.69719401634686062</v>
       </c>
       <c r="T49" s="0">
         <v>0</v>
@@ -10375,7 +10375,7 @@
         <v>0.66203949054198619</v>
       </c>
       <c r="AZ50" s="0">
-        <v>0.57907936928736781</v>
+        <v>0.72670492296802669</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="AA51" s="0">
-        <v>0.55533952405534692</v>
+        <v>0.7908867667172409</v>
       </c>
       <c r="AB51" s="0">
         <v>0</v>
@@ -10575,7 +10575,7 @@
         <v>0</v>
       </c>
       <c r="AX51" s="0">
-        <v>0.5651118390662524</v>
+        <v>0.66203949054198619</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
@@ -10775,7 +10775,7 @@
         <v>0</v>
       </c>
       <c r="AV52" s="0">
-        <v>0.75751900850292353</v>
+        <v>0.8830391243510014</v>
       </c>
       <c r="AW52" s="0">
         <v>0</v>
@@ -10790,7 +10790,7 @@
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>0.80407422921607918</v>
+        <v>0.91033423026424876</v>
       </c>
       <c r="BB52" s="0">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="C53" s="0">
-        <v>0.82111776914976531</v>
+        <v>0.97991875433837206</v>
       </c>
       <c r="D53" s="0">
         <v>0</v>
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>0.70887674201111095</v>
+        <v>0.89127488317498016</v>
       </c>
       <c r="AZ53" s="0">
         <v>0.91033423026424876</v>
@@ -10999,7 +10999,7 @@
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>0.64316695016197745</v>
+        <v>0.92880949435663041</v>
       </c>
       <c r="BC53" s="0">
         <v>0</v>
@@ -11181,7 +11181,7 @@
         <v>0</v>
       </c>
       <c r="AT54" s="0">
-        <v>0.7130127197174243</v>
+        <v>0.96577354822060457</v>
       </c>
       <c r="AU54" s="0">
         <v>0</v>
@@ -11211,7 +11211,7 @@
         <v>0.85239632698488443</v>
       </c>
       <c r="BD54" s="0">
-        <v>0.5267689979414325</v>
+        <v>0.70681323659601136</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11291,7 +11291,7 @@
         <v>0</v>
       </c>
       <c r="N55" s="0">
-        <v>0.73558796935095117</v>
+        <v>0.97550015736651297</v>
       </c>
       <c r="O55" s="0">
         <v>0</v>
@@ -11411,7 +11411,7 @@
         <v>0</v>
       </c>
       <c r="BB55" s="0">
-        <v>0.53533769567292255</v>
+        <v>0.85239632698488443</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
@@ -11420,7 +11420,7 @@
         <v>0</v>
       </c>
       <c r="BE55" s="0">
-        <v>0.52789889131928558</v>
+        <v>0.70557880664135197</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11530,7 +11530,7 @@
         <v>0</v>
       </c>
       <c r="Y56" s="0">
-        <v>0.79655590677996702</v>
+        <v>0.92031017237837554</v>
       </c>
       <c r="Z56" s="0">
         <v>0</v>
@@ -11796,7 +11796,7 @@
         <v>0</v>
       </c>
       <c r="AS57" s="0">
-        <v>0.64988719600537692</v>
+        <v>0.71093578297428239</v>
       </c>
       <c r="AT57" s="0">
         <v>0</v>
@@ -11838,7 +11838,7 @@
         <v>0</v>
       </c>
       <c r="BG57" s="0">
-        <v>0.79867832649287118</v>
+        <v>0.98948926315487196</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11888,7 +11888,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="0">
-        <v>0.54333072486545197</v>
+        <v>0.92868898056175231</v>
       </c>
       <c r="H58" s="0">
         <v>0</v>
@@ -12035,7 +12035,7 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>0.74394699405496645</v>
+        <v>0.86295943088825466</v>
       </c>
       <c r="BE58" s="0">
         <v>0</v>
@@ -12044,7 +12044,7 @@
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>0.76372778083941995</v>
+        <v>0.82912970019497578</v>
       </c>
       <c r="BH58" s="0">
         <v>0</v>
@@ -12282,7 +12282,7 @@
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>0.9335026387815335</v>
+        <v>0.94551878715207327</v>
       </c>
       <c r="B60" s="0">
         <v>0</v>
@@ -12456,7 +12456,7 @@
         <v>0</v>
       </c>
       <c r="BG60" s="0">
-        <v>0.76199246867785464</v>
+        <v>0.78926501768814483</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
@@ -12509,7 +12509,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="0">
-        <v>0.88828540555375879</v>
+        <v>0.89448316387785387</v>
       </c>
       <c r="I61" s="0">
         <v>0</v>
@@ -12662,16 +12662,16 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>0.73109942380973947</v>
+        <v>0.84248574422234679</v>
       </c>
       <c r="BH61" s="0">
-        <v>0.87119968103450574</v>
+        <v>0.91833976271714035</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>0.60824156528048701</v>
+        <v>0.85336805693373297</v>
       </c>
       <c r="BK61" s="0">
         <v>0</v>
@@ -12850,7 +12850,7 @@
         <v>0</v>
       </c>
       <c r="BA62" s="0">
-        <v>0.57875453059069426</v>
+        <v>0.74140213140618283</v>
       </c>
       <c r="BB62" s="0">
         <v>0</v>
@@ -12871,7 +12871,7 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>0.62961665700170766</v>
+        <v>0.92414245933931638</v>
       </c>
       <c r="BI62" s="0">
         <v>0.85336805693373297</v>
@@ -12880,7 +12880,7 @@
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>0.58619389313664294</v>
+        <v>0.88471560536540839</v>
       </c>
       <c r="BL62" s="0">
         <v>0</v>
@@ -12895,7 +12895,7 @@
         <v>0</v>
       </c>
       <c r="BP62" s="0">
-        <v>0.55338454848481489</v>
+        <v>0.67103517279574021</v>
       </c>
     </row>
     <row r="63">
@@ -13092,7 +13092,7 @@
         <v>0.63110523106824024</v>
       </c>
       <c r="BM63" s="0">
-        <v>0.58595181021978826</v>
+        <v>0.95103415902647637</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13130,7 +13130,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="0">
-        <v>0.66279437067132774</v>
+        <v>0.7362329976898272</v>
       </c>
       <c r="J64" s="0">
         <v>0</v>
@@ -13214,7 +13214,7 @@
         <v>0</v>
       </c>
       <c r="AK64" s="0">
-        <v>0.84170096904240699</v>
+        <v>0.8806120567209893</v>
       </c>
       <c r="AL64" s="0">
         <v>0</v>
@@ -13292,7 +13292,7 @@
         <v>0</v>
       </c>
       <c r="BK64" s="0">
-        <v>0.57053832538229021</v>
+        <v>0.63110523106824024</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
@@ -13710,7 +13710,7 @@
         <v>0</v>
       </c>
       <c r="BM66" s="0">
-        <v>0.75723168011961506</v>
+        <v>0.78648572393827332</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
@@ -13724,7 +13724,7 @@
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0.54120912475931604</v>
+        <v>0.59297949411845541</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13916,16 +13916,16 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>0.5594767518115904</v>
+        <v>0.69402098742427887</v>
       </c>
       <c r="BN67" s="0">
-        <v>0.71824735702269504</v>
+        <v>0.92853555076715644</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>0.87297907071305736</v>
+        <v>0.91582422014789566</v>
       </c>
     </row>
     <row r="68">
@@ -14101,7 +14101,7 @@
         <v>0</v>
       </c>
       <c r="BF68" s="0">
-        <v>0.53048586691398603</v>
+        <v>0.77311261371490203</v>
       </c>
       <c r="BG68" s="0">
         <v>0</v>
@@ -14125,7 +14125,7 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>0.62255820065704437</v>
+        <v>0.75489731425047046</v>
       </c>
       <c r="BO68" s="0">
         <v>0.91582422014789566</v>
